--- a/документы к защите/ответы на замечания.xlsx
+++ b/документы к защите/ответы на замечания.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Замечание</t>
   </si>
@@ -22,136 +22,45 @@
   </si>
   <si>
     <t xml:space="preserve">Ответ соискателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  из автореферата не ясно, как оценивалась исходная нелинейность фазовой характеристики, что является стартовой и конечной точками для проведения условно эталонной линейной характеристики;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рябова Н.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, оценка нелинейности проводилась не по всем точкам ФЧХ, а лишь по максимальному отклонению. Линия проводилась по точкам начала и конца полосы пропускания канала связи и, соответственно, корректора. Нелинейность оценивалась как максимальное отклонение фазовой характеристики от проведенной прямой.
+Для примеров синтеза методом линейной регрессии оценка не проводилась, с замечанием согласен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Оценка нелинейности фазочастотной характеристики тракта до и после компенсации проведена формально, нет конкретных значений отклонения этой характеристики от линейной, лишь некоторая верхняя оценка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИИИС (ведущая)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  результаты синтеза корректоров с использованием минимаксного критерия и критерия минимизации среднего квадрата ошибки (СКО), представленные на рисунках в четвертом разделе, не сопровождаются количественными значениями показателей фазовых искажений в тракте, включающем корректирующее звено;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НПП "Прима"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  в автореферате недостаточно рассмотрена возможность применения цифровых фильтров с топологией, отличной от зеркальной, указано на возможность их использования, но не показано как изменятся в таком случае требования и какие преимущества или недостатки это даст;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможность применения БИХ- и КИХ-фильтров со свободными, а не зеркальными, коэффициентами для коррекции фазовых искажений вполне возможна при использовании приведенного метода синтеза. Примеры показаны в статьях [24], [26], [55], [63]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  Н.С.Морозов ограничился рассмотрением цифровых фильтров только с действительными коэффициентами, вопрос эффективности использования в указанных задачах фильтров с комплексными коэффициентами не рассмотрен;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров Е.П.</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">из автореферата не ясно, как оценивалась исходная нелинейность фазовой характеристики, что является стартовой и конечной точками для проведения условно эталонной линейной характеристики;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Линия проводилась по точкам начала и конца полосы пропускания канала связи и, соответственно, корректора. Нелинейность оценивалась как максимальное отклонение фазовой характеристики от проведенной прямой.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>в</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> автореферат</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>е</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">недостаточно рассмотрена возможность </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">применения цифровых фильтров с топологией, отличной от зеркальной, указано на возможность их использования, но не показано как изменятся в таком случае требования и какие преимущества или недостатки это даст;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Возможность применения БИХ- и КИХ-фильтров со свободными, а не зеркальными, коэффициентами для коррекции фазовых искажений вполне возможна при использовании приведенного метода синтеза. Примеры показаны в статьях [24], [26], [55], [63]. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Н.С.Моро</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">зов ограничился рассмотрением цифровых фильтров только с дей</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">ствительными коэффициентами, вопрос эффективности использования в указанных задачах фильтров с комплексными коэффициентам</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">и не рассмотрен;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">Да, вопрос применения комплексных коэффициентов вида a</t>
@@ -160,7 +69,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>x</t>
@@ -168,7 +76,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">= -cos(wT), 
@@ -178,7 +85,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t>y</t>
@@ -186,219 +92,125 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">= -sin(wT) в работе не рассматривался. Применение таких коэффициентов позволяет для каждого звена фильтра произвольно перемещать точку нуля АЧХ на всей полосе работы. Но аппаратная реализация (без применения специализированных вычислительных блоков) потребует вдвое большего числа операций умножения, что не приведет к выигрышу производительности. Применение же табличного задания требуемых характеристик позволяет поисковыми методами найти решение, удовлетворяющее произвольным характеристикам, т.е. и свободному размещению нулей АЧХ.</t>
+      <t xml:space="preserve">= -sin(wT) в работе не рассматривался. Применение таких коэффициентов позволяет для каждого звена фильтра произвольно перемещать точку нуля АЧХ на всей полосе работы. Но аппаратная реализация (без применения специализированных вычислительных блоков) потребует вдвое большего числа операций умножения, что не приведет к выигрышу производительности. Применение же табличного задания требуемых характеристик позволяет поисковыми методами найти решение, удовлетворяющее произвольным характеристикам, т.е. и свободному размещению нулей АЧХ.
+Но в дальнейшем развитии работы замечание будет обязательно учтено и будут рассмотрены примеры применения приведенной методики для синтеза фильтров с комплексными коэффициентами.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">при постановке задачи синтеза в качестве прямых ограничений указана разрядность коэффициентов, при этом не указано чем именно в этих задачах обусловлен выбор именно 8 бит;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Просто потому что могу"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">не показаны условия выбора конкретного порядка фильтра при его синтезе </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">по заданным характеристикам;</t>
-    </r>
+    <t xml:space="preserve">Работа ограничена рассмотрением только цифровых фильтров с действительными коэффициентами и не охватывает случай комплексных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фадеев Р.С.
+ (оппонент)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа ограничена рассмотрением только цифровых фильтров с действительными коэффициентами и не охватывает случай комплексных весовых коэффициентов, важных при обработке комплексных сигналов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самойлов А.Г.
+ (оппонент)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - В работе рассмотрены цифровые фильтры с целочисленными действительными коэффициентами, нет примеров для сравнения с фильтрами с иным типом представления коэффициентов, например, комплексными.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  при постановке задачи синтеза в качестве прямых ограничений указана разрядность коэффициентов, при этом не указано чем именно в этих задачах обусловлен выбор именно 8 бит;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Одним из показателей эффективности работы цифрового фильтра является количество вычислительных ресурсов, требуемых на его аппаратную реализацию. Ограничения на них обычно определяются разрядностью аппаратной платформы. Для 16-битных МК или ЦСП таким ограничением может служить их разрядность за вычетом двух старших бит, отводимых на возможные переполнения (до операции нормировки). Для ПЛИС - чем меньше ячеек памяти занимает фильтр, тем больше свободных ресурсов для выполнения основной задачи остается.
+Вторым фактором выбора именно 8-бит служила демонстрация возможностей поискового метода. Даже при таком сильном ограничении, фильтр-корректор имеет невысокий порядок при хороших выходных характеристиках.
+Подробнее об условиях выбора разрядности коэффициентов написано в статьях В.Н.Бугрова [39], [57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  не показаны условия выбора конкретного порядка фильтра при его синтезе по заданным характеристикам;</t>
   </si>
   <si>
     <t xml:space="preserve">Порядок фильтра задается на этапе постановки задачи, задании целевых функционалов. Выбор порядка изначально выбирался экспертно и корректировался в большую или меньшую сторону при каждой новой итерации синтеза. Процесс продолжался до тех пор, пока заданным требованиям и ограничениям не удовлетворял фильтр наименьшего порядка из синтезированных.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">имеется опечатка в формуле на странице 9 автореферата (3-я строка снизу) – модули коэффициентов передачи должны перемножаться, а не складываться;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">НПП "Прима"</t>
+    <t xml:space="preserve">     -  Не представлены условия выбора порядка фильтра при синтезе, был ли порядок одним из изначальных требований или он был определен в процессе синтеза.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  имеется опечатка в формуле на странице 9 автореферата (3-я строка снизу) – модули коэффициентов передачи должны перемножаться, а не складываться;</t>
   </si>
   <si>
     <t xml:space="preserve">Техническая ошибка</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">в автореферате не рассмотрен вопрос определения порядка синтезируемых фильтров для фазовых корректоров;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">результаты синтеза корректоров с и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">спользованием минимаксного критерия и критерия минимизации среднего квадрата ошибки (СКО), представленные на рисунках в четвертом разделе, не сопровождаются количественными значениями показателей фазовых искажений в тракте, включающем корректирующее звено;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">отсутствие примера применения метода численного моделирования цифрового корректора для реальной задачи коррекции;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">малая выборка для сравнительного анализа различных методик проектирования ЦФ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">пример реализации только на одной аппаратной пратформе — микроконтроллере, без сравнения с реализацией на сигнальном процессоре или ПЛИС;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="64"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">     –  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">волоконно-оптический тракт упоминается только в контексте компенсации частотной </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF22272F"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">дисперсии и, в отличие от ранее показанных решений, для него нет практического подтверждения устойчивости и не указано, может ли такой фильтр фактически применяться на практике для высокоскоростных линий передачи, которыми и являются оптоволоконные каналы.</t>
-    </r>
+    <t xml:space="preserve">     –  в автореферате не рассмотрен вопрос определения порядка синтезируемых фильтров для фазовых корректоров;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  отсутствие примера применения метода численного моделирования цифрового корректора для реальной задачи коррекции;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НПП "Салют"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласен с замечанием. В работе приведены лишь смоделированные тракты. В дальнейшем планируется применить методику и к реальным задачам, в частности, к гидроакустическому тракту. Примеры есть в статье [106]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Диссертантом недостаточно приведено примеров практического применения предложенного им подхода к решению задачи синтеза корректоров фазовых трактов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  малая выборка для сравнительного анализа различных методик проектирования ЦФ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласен с замечанием. В работе не представлены примеры синтеза аналогичных корректоров методом взвешенного последовательно-параллельного включения фазовых фильтров или классических БИХ-фильтров. Соответственно и не приведены оценки вычислительных затрат, так как для этого необходимо иметь конкретный фильтр, хотя бы его топологию.. 
+Верхнюю оценку дать можно: фильтры с целочисленными коэффициентами будут эффективнее фильтров с вещественными, так как есть существенная разница в скорости математических преобразований. Но конкретных значений на данный момент нет. Требует дальнейшей работы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- в работе не показаны значения выигрыша от предложенных моделей и алгоритмов по сравнению с известными решениями, хотя бы на примере вычислительных затрат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  Показаны примеры практической реализации фильтров-корректоров фазовых искажений узкополосного и широкополосного трактов, но для компенсаторов частотной дисперсии пример реализации на ПЛИС не приведен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласен с замечаниями. В работе отсутствует пример реализации фильтров на ПЛИС для оптоволоконного тракта. Однако такие примеры приводились в статьях В.Н.Бугрова [76], [82], [88].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  пример реализации только на одной аппаратной пратформе — микроконтроллере, без сравнения с реализацией на сигнальном процессоре или ПЛИС;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     –  волоконно-оптический тракт упоминается только в контексте компенсации частотной дисперсии и, в отличие от ранее показанных решений, для него нет практического подтверждения устойчивости и не указано, может ли такой фильтр фактически применяться на практике для высокоскоростных линий передачи, которыми и являются оптоволоконные каналы.</t>
   </si>
   <si>
     <t xml:space="preserve">Бобрешов А.М.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Недостаточно рассмотрены особенности работы предложенных в работе алгоритмов при реализации в высокоскоростных системах оптоволоконных линий связи на основе ПЛИС, хотя эта область применения в работе упоминается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -  В схеме измерительной установки, на которой проводилась проверка работоспособности полученных фильтров, присутствует фильтр верхних частот, но нигде не указано, учитывались ли вносимые им искажения при анализе полученных результатов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, конденсатор отсечки и резистивный делитель для подтяжки напряжения генератора в положительную область можно рассматривать как фильтр верхних частот малого порядка. В данном случае, частота отсечки этого фильтра была 10Гц. Его вклад в исследуемый сигнал был невелик, но замечание справедливое, так как формально вносимые им искажения должны учитываться, равно как и шумы самого тракта. Однако их величина была мала и на качественную оценку слияла мало, так что их вкладом я пренебрег.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- не рассмотрены ограничения на модели, используемые при компьютерном моделировании и адекватность моделей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Модели широкополосного радиотракта и узкополосного радиотракта смоделированы ФНЧ и полосовым фильтром соответственно. Адекватность модели определяется степенью ее соответствия не столько реальному объекту, сколько целью исследования. Статистически, используемые модели соответствуют (качественно) реальным каналам связи. Целью исследования было продемонстрировать возможности метода для коррекции фазовых искажений. Модели адекватно помогают как продемонстрировать саму задачу, так и сравнить результаты ее решения. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не понятно в каких целях в приложения включено "Заключение..." организации, в которой выполнена работа. В тексте на него нет ссылок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техническая ошибка. В ранней версии диссертации, которая была отправлена заключение было ошибочно включено наряду с актами о внедрении. При публикации на сайте ВАК это уже было исправлено.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- распечатки разработанных программ следовало из текста вынести в приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласен с замечанием.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -408,6 +220,16 @@
     <font>
       <name val="Times New Roman"/>
       <color theme="1"/>
+      <sz val="12.000000"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
       <sz val="12.000000"/>
     </font>
   </fonts>
@@ -431,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -443,10 +265,31 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" indent="-1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment indent="3" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -958,8 +801,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -967,113 +814,425 @@
   <cols>
     <col customWidth="1" min="1" max="1" style="2" width="81.421875"/>
     <col customWidth="1" min="2" max="2" style="3" width="21.8515625"/>
-    <col customWidth="1" min="3" max="3" style="4" width="75.421875"/>
-    <col min="4" max="4" style="1" width="9.140625"/>
-    <col min="5" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="4" width="79.28125"/>
+    <col min="4" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="60">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="45">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="86.25">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="3" ht="45">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="150">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" ht="60">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="51.75">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" ht="60">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="90">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="6" ht="90" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="51.75">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="7" ht="30">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="90">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="86.25">
-      <c r="A9" s="7" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" ht="45">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" ht="51.75">
-      <c r="A10" s="7" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" ht="34.5">
-      <c r="A11" s="7" t="s">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" ht="74.25" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="51.75">
-      <c r="A12" s="7" t="s">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" ht="210">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" ht="103.5">
-      <c r="A13" s="7" t="s">
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="11" ht="61.5" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="56.25" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" ht="30">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="90">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="30">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="45">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" ht="72" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="82.5" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" ht="45">
+      <c r="A19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="45">
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" ht="75">
+      <c r="A21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" ht="60">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" ht="105">
+      <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" ht="120">
+      <c r="A24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="45">
+      <c r="A25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="30">
+      <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="14"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="14"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="14"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="14"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="14"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="14"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="14"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="14"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="14"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="14"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C22"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.25196850393700787" right="0.25196850393700787" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="82" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>